--- a/solver/excel/result/3/model_metric.xlsx
+++ b/solver/excel/result/3/model_metric.xlsx
@@ -645,25 +645,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.962962962962963</v>
       </c>
     </row>
   </sheetData>

--- a/solver/excel/result/3/model_metric.xlsx
+++ b/solver/excel/result/3/model_metric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,6 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>f1</t>
         </is>
       </c>
@@ -477,25 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -505,165 +497,72 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>svc</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>StackingClassifier</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>LGBMClassifier</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9880952380952381</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.962962962962963</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/solver/excel/result/3/model_metric.xlsx
+++ b/solver/excel/result/3/model_metric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>f1</t>
         </is>
       </c>
@@ -472,22 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8979591836734694</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -497,72 +505,165 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5918367346938775</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4666666666666667</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4666666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9183673469387755</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>svc</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.8979591836734694</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6666666666666666</v>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>StackingClassifier</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LGBMClassifier</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9848484848484849</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9880952380952381</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.962962962962963</v>
       </c>
     </row>
   </sheetData>
